--- a/data/compass.xlsx
+++ b/data/compass.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">direction</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSW</t>
   </si>
   <si>
     <t xml:space="preserve">SW</t>
@@ -86,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -145,12 +149,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -174,16 +182,16 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -191,7 +199,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -199,7 +207,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -208,7 +216,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -217,7 +225,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -226,7 +234,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -234,7 +242,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -243,7 +251,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -252,7 +260,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -261,7 +269,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -269,8 +277,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">(B10+B12)/2</f>
@@ -278,8 +286,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">(B10+B14)/2</f>
@@ -287,8 +295,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="false">(B12+B14)/2</f>
@@ -296,16 +304,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">(B14+B16)/2</f>
@@ -313,8 +321,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">(270+360)/2</f>
@@ -322,8 +330,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>16</v>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">(B16+360)/2</f>

--- a/data/compass.xlsx
+++ b/data/compass.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t xml:space="preserve">direction</t>
   </si>
@@ -28,49 +28,52 @@
     <t xml:space="preserve">degrees</t>
   </si>
   <si>
+    <t xml:space="preserve">radians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">NNE</t>
-  </si>
-  <si>
     <t xml:space="preserve">NE</t>
   </si>
   <si>
-    <t xml:space="preserve">NEE</t>
-  </si>
-  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">SEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE </t>
+    <t xml:space="preserve">ESE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">SSE</t>
   </si>
   <si>
-    <t xml:space="preserve">S </t>
-  </si>
-  <si>
     <t xml:space="preserve">SSW</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW</t>
   </si>
   <si>
-    <t xml:space="preserve">SWW</t>
+    <t xml:space="preserve">WSW</t>
   </si>
   <si>
     <t xml:space="preserve">W</t>
   </si>
   <si>
-    <t xml:space="preserve">NWW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NW </t>
+    <t xml:space="preserve">WNW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW</t>
   </si>
   <si>
     <t xml:space="preserve">NNW</t>
@@ -80,9 +83,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -149,12 +153,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,164 +187,253 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <f aca="false">(B2+B4)/2</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <f aca="false">(B2+B6)/2</f>
-        <v>45</v>
+      <c r="C4" s="2" t="n">
+        <f aca="false">B4/180*PI()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">(B4+B6)/2</f>
-        <v>67.5</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">B5/180*PI()</f>
+        <v>0.785398163397448</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">B6/180*PI()</f>
+        <v>1.5707963267949</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">(B6+B8)/2</f>
         <v>112.5</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">B7/180*PI()</f>
+        <v>1.96349540849362</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="n">
-        <f aca="false">(B6+B10)/2</f>
+        <f aca="false">(B6+B11)/2</f>
         <v>135</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">B8/180*PI()</f>
+        <v>2.35619449019234</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="n">
-        <f aca="false">(B8+B10)/2</f>
+        <f aca="false">(B8+B11)/2</f>
         <v>157.5</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">B9/180*PI()</f>
+        <v>2.74889357189107</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
+        <f aca="false">(B8+B15)/2</f>
+        <v>202.5</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">B10/180*PI()</f>
+        <v>3.53429173528852</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2" t="n">
+        <f aca="false">B11/180*PI()</f>
+        <v>3.14159265358979</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <f aca="false">(B10+B12)/2</f>
+      <c r="B12" s="1" t="n">
+        <f aca="false">(B11+B13)/2</f>
         <v>202.5</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <f aca="false">(B10+B14)/2</f>
+      <c r="C12" s="2" t="n">
+        <f aca="false">B12/180*PI()</f>
+        <v>3.53429173528852</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <f aca="false">(B11+B15)/2</f>
         <v>225</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <f aca="false">(B12+B14)/2</f>
+      <c r="C13" s="2" t="n">
+        <f aca="false">B13/180*PI()</f>
+        <v>3.92699081698724</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <f aca="false">(B13+B15)/2</f>
         <v>247.5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="n">
+      <c r="C14" s="2" t="n">
+        <f aca="false">B14/180*PI()</f>
+        <v>4.31968989868597</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>270</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <f aca="false">(B14+B16)/2</f>
+      <c r="C15" s="2" t="n">
+        <f aca="false">B15/180*PI()</f>
+        <v>4.71238898038469</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <f aca="false">(B15+B17)/2</f>
         <v>292.5</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="n">
+      <c r="C16" s="2" t="n">
+        <f aca="false">B16/180*PI()</f>
+        <v>5.10508806208341</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <f aca="false">(270+360)/2</f>
         <v>315</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <f aca="false">(B16+360)/2</f>
-        <v>337.5</v>
-      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">B17/180*PI()</f>
+        <v>5.49778714378214</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <f aca="false">(B17+350)/2</f>
+        <v>332.5</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">B18/180*PI()</f>
+        <v>5.80321976288115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
